--- a/biology/Zoologie/Gomphocerinae/Gomphocerinae.xlsx
+++ b/biology/Zoologie/Gomphocerinae/Gomphocerinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gomphocerinae sont une sous-famille d'insectes orthoptères de la famille des Acrididae[1].
-Ils sont appelés criquets chanteurs[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gomphocerinae sont une sous-famille d'insectes orthoptères de la famille des Acrididae.
+Ils sont appelés criquets chanteurs.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette sous-famille se rencontrent en Asie, en Europe, en Afrique, en Amérique et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette sous-famille se rencontrent en Asie, en Europe, en Afrique, en Amérique et en Océanie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File  (31 octobre 2018)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File  (31 octobre 2018) :
 tribu Acrolophitini Scudder, 1901
 genre Acrolophitus Thomas, 1871
 genre Bootettix Bruner, 1889
@@ -786,7 +802,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fieber, 1853 : Synopsis der europaischen Orthopteren. Lotus (Prag), vol. 3, p. 90-259 (texte intégral).</t>
         </is>
